--- a/50Missions_2.xlsx
+++ b/50Missions_2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magneton\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="7230" firstSheet="8" activeTab="10"/>
   </bookViews>
@@ -477,6 +482,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -524,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7516,10 +7524,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E58"/>
+      <selection activeCell="A3" sqref="A3:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7563,16 +7571,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.0804146221366548</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7580,16 +7588,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2.0804146221366548</v>
+        <v>7.25</v>
       </c>
       <c r="E4">
-        <v>8.4804146221366548</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7603,10 +7611,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.4804146221366548</v>
+        <v>8.25</v>
       </c>
       <c r="E5">
-        <v>9.2304146221366548</v>
+        <v>8.4166666666666661</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7614,16 +7622,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>9.2304146221366548</v>
+        <v>8.4166666666666661</v>
       </c>
       <c r="E6">
-        <v>15.630414622136655</v>
+        <v>9.4166666666666661</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7637,44 +7645,44 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.630414622136655</v>
+        <v>9.4166666666666661</v>
       </c>
       <c r="E7">
-        <v>17.135613944485691</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1.9195853778633452</v>
+        <v>14.75</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>9.4166666666666661</v>
       </c>
       <c r="E9">
-        <v>10.4</v>
+        <v>17.416666666666664</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7682,55 +7690,55 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>10.4</v>
+        <v>7.5</v>
       </c>
       <c r="E10">
-        <v>12.480414622136655</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>5.1695853778633456</v>
+        <v>8.25</v>
       </c>
       <c r="E11">
-        <v>7.25</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>7.25</v>
+        <v>8.75</v>
       </c>
       <c r="E12">
-        <v>8.15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7739,27 +7747,27 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.15</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>8.748174305700271</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>8.748174305700271</v>
-      </c>
       <c r="E14">
-        <v>9.6481743057002713</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7767,16 +7775,16 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>9.6481743057002713</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>10.128408623507735</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7784,16 +7792,16 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>10.128408623507735</v>
+        <v>8.25</v>
       </c>
       <c r="E16">
-        <v>11.028408623507735</v>
+        <v>8.2916666666666661</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7801,21 +7809,21 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>11.028408623507735</v>
+        <v>8.2916666666666661</v>
       </c>
       <c r="E17">
-        <v>13.874513417783589</v>
+        <v>9.2916666666666661</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7824,32 +7832,32 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.9521455104343186</v>
+        <v>9.2916666666666661</v>
       </c>
       <c r="E18">
-        <v>7.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>8.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7858,15 +7866,15 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.440767078078675</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>10.75</v>
+        <v>11.166666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>13</v>
@@ -7875,15 +7883,15 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>10.75</v>
+        <v>11.166666666666666</v>
       </c>
       <c r="E21">
-        <v>11.65</v>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7892,27 +7900,27 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.65</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="E22">
-        <v>11.887170824512628</v>
+        <v>12.354166666666666</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
       <c r="D23">
-        <v>11.887170824512628</v>
+        <v>12.354166666666666</v>
       </c>
       <c r="E23">
-        <v>12.487170824512628</v>
+        <v>13.854166666666666</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7920,21 +7928,21 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>12.487170824512628</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>14.856572120198946</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7943,61 +7951,61 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.72754262966277</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>12.194444444444445</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>12.194444444444445</v>
       </c>
       <c r="E26">
-        <v>14.9</v>
+        <v>13.194444444444445</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>15.5</v>
+        <v>13.194444444444445</v>
       </c>
       <c r="E27">
-        <v>16.399999999999999</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
       <c r="D28">
-        <v>16.399999999999999</v>
+        <v>13.75</v>
       </c>
       <c r="E28">
-        <v>16.735410196624969</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -8005,16 +8013,16 @@
         <v>5</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
         <v>5</v>
-      </c>
-      <c r="D29">
-        <v>16.735410196624969</v>
-      </c>
-      <c r="E29">
-        <v>17.33541019662497</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8028,10 +8036,10 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>17.63153415615735</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>18.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8039,16 +8047,16 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>18.25</v>
+        <v>5.5</v>
       </c>
       <c r="E31">
-        <v>19.149999999999999</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8062,100 +8070,100 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>19.149999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="E32">
-        <v>20.882141016199316</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>13.919585377863346</v>
+        <v>10.5</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="E34">
-        <v>22.4</v>
+        <v>11.590277777777779</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>22.4</v>
+        <v>11.590277777777779</v>
       </c>
       <c r="E35">
-        <v>22.4</v>
+        <v>12.590277777777779</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>22.4</v>
+        <v>12.590277777777779</v>
       </c>
       <c r="E36">
-        <v>28.799999999999997</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>28.799999999999997</v>
+        <v>13.25</v>
       </c>
       <c r="E37">
-        <v>30.880414622136652</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8164,219 +8172,219 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>16.374276426012486</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>18.75</v>
+        <v>15.152777777777779</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>18.75</v>
+        <v>15.152777777777779</v>
       </c>
       <c r="E39">
-        <v>19.649999999999999</v>
+        <v>16.152777777777779</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>19.649999999999999</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>20.032426463519457</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>20.032426463519457</v>
+        <v>16.75</v>
       </c>
       <c r="E41">
-        <v>20.932426463519455</v>
+        <v>16.909722222222221</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>20.932426463519455</v>
+        <v>16.909722222222221</v>
       </c>
       <c r="E42">
-        <v>21.007426463519455</v>
+        <v>17.909722222222221</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>21.007426463519455</v>
+        <v>17.909722222222221</v>
       </c>
       <c r="E43">
-        <v>21.907426463519453</v>
+        <v>18.055555555555554</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>21.907426463519453</v>
+        <v>18.055555555555554</v>
       </c>
       <c r="E44">
-        <v>21.982426463519452</v>
+        <v>19.055555555555554</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>21.982426463519452</v>
+        <v>19.055555555555554</v>
       </c>
       <c r="E45">
-        <v>22.582426463519454</v>
+        <v>19.201388888888886</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>22.582426463519454</v>
+        <v>19.201388888888886</v>
       </c>
       <c r="E46">
-        <v>22.852842809179254</v>
+        <v>20.201388888888886</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>22.852842809179254</v>
+        <v>20.201388888888886</v>
       </c>
       <c r="E47">
-        <v>23.752842809179253</v>
+        <v>20.284722222222218</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>23.752842809179253</v>
+        <v>20.284722222222218</v>
       </c>
       <c r="E48">
-        <v>25.987023307706622</v>
+        <v>21.784722222222218</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>17.244800677650964</v>
+        <v>13.25</v>
       </c>
       <c r="E49">
-        <v>18.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>18.75</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>19.649999999999999</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8385,32 +8393,32 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>19.649999999999999</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>20.718439282317902</v>
+        <v>16.145833333333332</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>20.718439282317902</v>
+        <v>16.145833333333332</v>
       </c>
       <c r="E52">
-        <v>21.618439282317901</v>
+        <v>17.895833333333332</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -8419,95 +8427,435 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>21.618439282317901</v>
+        <v>17.895833333333332</v>
       </c>
       <c r="E53">
-        <v>24.155231055404528</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>18.25</v>
+        <v>18.5</v>
       </c>
       <c r="E54">
-        <v>20.484180498527369</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>20.484180498527369</v>
+        <v>19.5</v>
       </c>
       <c r="E55">
-        <v>21.53418049852737</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>21.53418049852737</v>
+        <v>20.25</v>
       </c>
       <c r="E56">
-        <v>21.53418049852737</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>21.53418049852737</v>
+        <v>22</v>
       </c>
       <c r="E57">
-        <v>22.58418049852737</v>
+        <v>22.284722222222221</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>22.284722222222221</v>
+      </c>
+      <c r="E58">
+        <v>30.284722222222221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>34</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>14.25</v>
+      </c>
+      <c r="E59">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>15.25</v>
+      </c>
+      <c r="E60">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>15.5</v>
+      </c>
+      <c r="E61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>43</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>18.25</v>
+      </c>
+      <c r="E63">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>19.75</v>
+      </c>
+      <c r="E64">
+        <v>19.888888888888889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>37</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>19.888888888888889</v>
+      </c>
+      <c r="E65">
+        <v>21.638888888888889</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>21.638888888888889</v>
+      </c>
+      <c r="E66">
+        <v>21.715277777777779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>21.715277777777779</v>
+      </c>
+      <c r="E67">
+        <v>22.715277777777779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>15.5</v>
+      </c>
+      <c r="E68">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>16.5</v>
+      </c>
+      <c r="E69">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>45</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>16.75</v>
+      </c>
+      <c r="E70">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>18.5</v>
+      </c>
+      <c r="E71">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>20.5</v>
+      </c>
+      <c r="E73">
+        <v>20.819444444444443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>35</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>20.819444444444443</v>
+      </c>
+      <c r="E74">
+        <v>21.819444444444443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>9</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>22.58418049852737</v>
-      </c>
-      <c r="E58">
-        <v>24.818360997054739</v>
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>18.75</v>
+      </c>
+      <c r="E75">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>19.75</v>
+      </c>
+      <c r="E76">
+        <v>19.958333333333332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>19.958333333333332</v>
+      </c>
+      <c r="E77">
+        <v>27.958333333333332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>46</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>22.25</v>
+      </c>
+      <c r="E78">
+        <v>23.75</v>
       </c>
     </row>
   </sheetData>
